--- a/processed_data/test.xlsx
+++ b/processed_data/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\PyParser\parser_xlsx\parser_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\PyParser\parser_xlsx\parser_xlsx\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B137B-6FBE-40F6-B427-EED1FCE3257D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BF4A3C-147A-496B-84FE-F07DFB52180F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -39,29 +39,38 @@
     <t>patronymic</t>
   </si>
   <si>
-    <t>Пошта</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>corp</t>
-  </si>
-  <si>
-    <t>Тимченко Ольга Вікторівна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43І група </t>
-  </si>
-  <si>
-    <t>014 Середня освіта</t>
+    <t>Мелешкова Анна Данилівна</t>
+  </si>
+  <si>
+    <t>Рудий Олександр Анатолійович</t>
+  </si>
+  <si>
+    <t>Тірон Микола Олександрович</t>
+  </si>
+  <si>
+    <t>Фучеджі Вікторія Петрівна</t>
+  </si>
+  <si>
+    <t>Лисенко Анна Ігорівна</t>
+  </si>
+  <si>
+    <t>Болєхан Альона Вікторівна</t>
+  </si>
+  <si>
+    <t>Білий Ярослав Борисович</t>
+  </si>
+  <si>
+    <t>Костенко Тетяна Олегівна</t>
+  </si>
+  <si>
+    <t>01 test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,6 +83,13 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,17 +109,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -111,14 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,201 +465,266 @@
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>